--- a/assets/template/8f3.xlsx
+++ b/assets/template/8f3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09D59A-4B25-483A-A501-FF2B8FF3D5CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA30A44-3F89-40FF-A34B-9BE0E8499CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{4A0083EE-16DF-412D-917D-3B32DE4306B4}"/>
+    <workbookView xWindow="8865" yWindow="2790" windowWidth="19680" windowHeight="11385" xr2:uid="{4A0083EE-16DF-412D-917D-3B32DE4306B4}"/>
   </bookViews>
   <sheets>
     <sheet name="8f3" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
